--- a/Team-Data/2007-08/1-30-2007-08.xlsx
+++ b/Team-Data/2007-08/1-30-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.442</v>
+        <v>0.452</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L2" t="n">
         <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P2" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="n">
         <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -735,25 +802,25 @@
         <v>21.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>3</v>
@@ -762,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -786,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>21</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,10 +1020,10 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -974,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -983,10 +1050,10 @@
         <v>16</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
         <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.704</v>
+        <v>0.707</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
         <v>40.2</v>
@@ -1084,16 +1151,16 @@
         <v>21.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
         <v>22.6</v>
@@ -1102,19 +1169,19 @@
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1123,13 +1190,13 @@
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1147,13 +1214,13 @@
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1162,13 +1229,13 @@
         <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX4" t="n">
         <v>14</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="H5" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>35.5</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="O5" t="n">
         <v>17.5</v>
@@ -1254,49 +1321,49 @@
         <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T5" t="n">
         <v>43.8</v>
       </c>
       <c r="U5" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z5" t="n">
         <v>21.2</v>
       </c>
-      <c r="V5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1305,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1335,19 +1402,19 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
@@ -1356,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
         <v>16</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J6" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>6.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V6" t="n">
         <v>14.6</v>
@@ -1457,28 +1524,28 @@
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1487,19 +1554,19 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
@@ -1517,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
       </c>
       <c r="AU6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
@@ -1672,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>5</v>
@@ -1681,10 +1748,10 @@
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -1758,31 +1825,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>18.3</v>
@@ -1791,43 +1858,43 @@
         <v>0.331</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="Q8" t="n">
         <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
         <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="AB8" t="n">
         <v>106.1</v>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1857,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>26</v>
@@ -1884,19 +1951,19 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2018,28 +2085,28 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2063,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>88.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L10" t="n">
         <v>9.800000000000001</v>
@@ -2152,34 +2219,34 @@
         <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
         <v>22.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.4</v>
@@ -2188,31 +2255,31 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.3</v>
+        <v>109.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2233,10 +2300,10 @@
         <v>16</v>
       </c>
       <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
         <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>13</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2248,16 +2315,16 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
         <v>20</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -2415,7 +2482,7 @@
         <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2439,13 +2506,13 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>20</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2621,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.317</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J13" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
         <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R13" t="n">
         <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T13" t="n">
         <v>41.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V13" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
         <v>6.7</v>
@@ -2734,7 +2801,7 @@
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
@@ -2743,19 +2810,19 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2767,13 +2834,13 @@
         <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2785,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT13" t="n">
         <v>20</v>
@@ -2806,22 +2873,22 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>12</v>
       </c>
       <c r="BB13" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC13" t="n">
         <v>24</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2964,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>17</v>
@@ -2976,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>0.283</v>
+        <v>0.289</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.37</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>16</v>
@@ -3095,25 +3162,25 @@
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC15" t="n">
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>9</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3152,16 +3219,16 @@
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3185,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3235,16 +3302,16 @@
         <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
@@ -3253,34 +3320,34 @@
         <v>25.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="U16" t="n">
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
         <v>4.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
         <v>22</v>
@@ -3289,16 +3356,16 @@
         <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
         <v>29</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,16 +3389,16 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,16 +3413,16 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.383</v>
+        <v>0.391</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
@@ -3426,31 +3493,31 @@
         <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P17" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
         <v>6.9</v>
@@ -3459,19 +3526,19 @@
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA17" t="n">
         <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.8</v>
+        <v>-6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,19 +3547,19 @@
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>18</v>
@@ -3501,13 +3568,13 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
         <v>25</v>
@@ -3516,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,31 +3592,31 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
         <v>5.5</v>
@@ -3608,25 +3675,25 @@
         <v>16.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
@@ -3635,7 +3702,7 @@
         <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
         <v>3.9</v>
@@ -3644,28 +3711,28 @@
         <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8</v>
+        <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
         <v>29</v>
@@ -3674,10 +3741,10 @@
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3695,28 +3762,28 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3728,10 +3795,10 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-5.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
@@ -3880,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
@@ -3889,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.711</v>
+        <v>0.727</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
@@ -3972,7 +4039,7 @@
         <v>20.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O20" t="n">
         <v>15.3</v>
@@ -3981,25 +4048,25 @@
         <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
@@ -4008,19 +4075,19 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4029,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
         <v>12</v>
@@ -4041,28 +4108,28 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
         <v>13</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -4124,34 +4191,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.336</v>
@@ -4169,16 +4236,16 @@
         <v>12.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W21" t="n">
         <v>6.4</v>
@@ -4190,19 +4257,19 @@
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA21" t="n">
         <v>21.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4211,7 +4278,7 @@
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>20</v>
@@ -4223,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4247,19 +4314,19 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>22</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.465</v>
       </c>
       <c r="L22" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.363</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.722</v>
       </c>
       <c r="R22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
         <v>4.6</v>
@@ -4378,10 +4445,10 @@
         <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,16 +4481,16 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4432,25 +4499,25 @@
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -4488,61 +4555,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
         <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>0.391</v>
+        <v>0.378</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J23" t="n">
         <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M23" t="n">
         <v>11.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.316</v>
+        <v>0.319</v>
       </c>
       <c r="O23" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W23" t="n">
         <v>8.199999999999999</v>
@@ -4554,40 +4621,40 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="n">
         <v>22</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>22</v>
       </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4614,19 +4681,19 @@
         <v>29</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4638,10 +4705,10 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>6.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>28</v>
@@ -4796,22 +4863,22 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW24" t="n">
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M25" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.392</v>
+        <v>0.395</v>
       </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
@@ -4921,37 +4988,37 @@
         <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.2</v>
+        <v>96.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
         <v>10</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4975,13 +5042,13 @@
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -4990,19 +5057,19 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K26" t="n">
         <v>0.46</v>
@@ -5061,10 +5128,10 @@
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
         <v>21.8</v>
@@ -5073,67 +5140,67 @@
         <v>27.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S26" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>39.5</v>
+        <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5142,22 +5209,22 @@
         <v>18</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP26" t="n">
         <v>8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY26" t="n">
         <v>21</v>
@@ -5187,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
@@ -5309,10 +5376,10 @@
         <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
         <v>12</v>
@@ -5336,7 +5403,7 @@
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS27" t="n">
         <v>14</v>
@@ -5345,7 +5412,7 @@
         <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5354,7 +5421,7 @@
         <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,10 +5555,10 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
@@ -5500,10 +5567,10 @@
         <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN28" t="n">
         <v>27</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J29" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
         <v>18.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.423</v>
+        <v>0.416</v>
       </c>
       <c r="O29" t="n">
         <v>16.2</v>
@@ -5619,70 +5686,70 @@
         <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V29" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
@@ -5724,7 +5791,7 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5792,58 +5859,58 @@
         <v>11.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T30" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
         <v>23.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5909,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
@@ -5944,106 +6011,106 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>82</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.347</v>
       </c>
       <c r="O31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U31" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
         <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>12</v>
@@ -6055,13 +6122,13 @@
         <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6070,16 +6137,16 @@
         <v>16</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6091,13 +6158,13 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2007-08</t>
+          <t>2008-01-30</t>
         </is>
       </c>
     </row>
